--- a/data/distance_angle/output_distance.xlsx
+++ b/data/distance_angle/output_distance.xlsx
@@ -436,13 +436,13 @@
         <v>0.002459799228574958</v>
       </c>
       <c r="H2" t="n">
-        <v>56.5</v>
+        <v>0.2215686274509804</v>
       </c>
       <c r="I2" t="n">
-        <v>770.0382852000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J2" t="n">
-        <v>98.87043494299857</v>
+        <v>93.25428603830905</v>
       </c>
     </row>
     <row r="3">
@@ -468,13 +468,13 @@
         <v>0.002789191968426464</v>
       </c>
       <c r="H3" t="n">
-        <v>59.5</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>814.9113091</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J3" t="n">
-        <v>109.2321727925221</v>
+        <v>102.1668724712946</v>
       </c>
     </row>
     <row r="4">
@@ -500,13 +500,13 @@
         <v>0.003320314713384616</v>
       </c>
       <c r="H4" t="n">
-        <v>57.25</v>
+        <v>0.2245098039215686</v>
       </c>
       <c r="I4" t="n">
-        <v>781.2819597</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J4" t="n">
-        <v>113.2300191529524</v>
+        <v>116.0391728935561</v>
       </c>
     </row>
     <row r="5">
@@ -532,13 +532,13 @@
         <v>0.003471164011082844</v>
       </c>
       <c r="H5" t="n">
-        <v>57.75</v>
+        <v>0.2264705882352941</v>
       </c>
       <c r="I5" t="n">
-        <v>789.2648763999999</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J5" t="n">
-        <v>116.6132253981057</v>
+        <v>123.4098011761157</v>
       </c>
     </row>
     <row r="6">
@@ -564,13 +564,13 @@
         <v>0.003338336381480807</v>
       </c>
       <c r="H6" t="n">
-        <v>58.75</v>
+        <v>0.2303921568627451</v>
       </c>
       <c r="I6" t="n">
-        <v>804.1586446</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J6" t="n">
-        <v>116.4660104161702</v>
+        <v>124.0445650210445</v>
       </c>
     </row>
     <row r="7">
@@ -596,13 +596,13 @@
         <v>0.003079623618667233</v>
       </c>
       <c r="H7" t="n">
-        <v>54.75</v>
+        <v>0.2147058823529412</v>
       </c>
       <c r="I7" t="n">
-        <v>741.3997632000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J7" t="n">
-        <v>103.1320570110978</v>
+        <v>119.1410748025226</v>
       </c>
     </row>
     <row r="8">
@@ -628,13 +628,13 @@
         <v>0.003036646915562611</v>
       </c>
       <c r="H8" t="n">
-        <v>59.75</v>
+        <v>0.2343137254901961</v>
       </c>
       <c r="I8" t="n">
-        <v>818.3436565000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J8" t="n">
-        <v>113.0889919963332</v>
+        <v>115.4274852864443</v>
       </c>
     </row>
     <row r="9">
@@ -660,13 +660,13 @@
         <v>0.003201657733877554</v>
       </c>
       <c r="H9" t="n">
-        <v>60.5</v>
+        <v>0.2372549019607843</v>
       </c>
       <c r="I9" t="n">
-        <v>829.1232200000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9969247622669</v>
+        <v>113.9468833627343</v>
       </c>
     </row>
     <row r="10">
@@ -692,13 +692,13 @@
         <v>0.003354679947628448</v>
       </c>
       <c r="H10" t="n">
-        <v>55.25</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>751.0919748</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J10" t="n">
-        <v>110.4128684579766</v>
+        <v>112.0460220221513</v>
       </c>
     </row>
     <row r="11">
@@ -724,13 +724,13 @@
         <v>0.003136356914300021</v>
       </c>
       <c r="H11" t="n">
-        <v>55</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I11" t="n">
-        <v>745.8620171</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J11" t="n">
-        <v>108.1373012633375</v>
+        <v>105.3008096635981</v>
       </c>
     </row>
     <row r="12">
@@ -756,13 +756,13 @@
         <v>0.002817583274759431</v>
       </c>
       <c r="H12" t="n">
-        <v>59.5</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>814.9113091</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J12" t="n">
-        <v>111.9832380456694</v>
+        <v>99.80616107349746</v>
       </c>
     </row>
     <row r="13">
@@ -788,13 +788,13 @@
         <v>0.003335033579979643</v>
       </c>
       <c r="H13" t="n">
-        <v>59</v>
+        <v>0.2313725490196079</v>
       </c>
       <c r="I13" t="n">
-        <v>807.9857025</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J13" t="n">
-        <v>118.4281121055303</v>
+        <v>111.7174467524644</v>
       </c>
     </row>
     <row r="14">
@@ -820,13 +820,13 @@
         <v>0.003874985187595126</v>
       </c>
       <c r="H14" t="n">
-        <v>56.25</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="I14" t="n">
-        <v>766.2210872000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J14" t="n">
-        <v>119.9646476953691</v>
+        <v>125.3574135639239</v>
       </c>
     </row>
     <row r="15">
@@ -852,13 +852,13 @@
         <v>0.00385925867894605</v>
       </c>
       <c r="H15" t="n">
-        <v>58.25</v>
+        <v>0.2284313725490196</v>
       </c>
       <c r="I15" t="n">
-        <v>797.1680602999999</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J15" t="n">
-        <v>124.1907639218741</v>
+        <v>130.1259850660644</v>
       </c>
     </row>
     <row r="16">
@@ -884,13 +884,13 @@
         <v>0.003657254462582776</v>
       </c>
       <c r="H16" t="n">
-        <v>57</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="I16" t="n">
-        <v>777.9026024</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J16" t="n">
-        <v>117.9221068298731</v>
+        <v>129.8345515006739</v>
       </c>
     </row>
     <row r="17">
@@ -916,13 +916,13 @@
         <v>0.003363428765593898</v>
       </c>
       <c r="H17" t="n">
-        <v>56.5</v>
+        <v>0.2215686274509804</v>
       </c>
       <c r="I17" t="n">
-        <v>770.0382852000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J17" t="n">
-        <v>111.9427190233353</v>
+        <v>124.5098786581999</v>
       </c>
     </row>
     <row r="18">
@@ -948,13 +948,13 @@
         <v>0.003280741578686509</v>
       </c>
       <c r="H18" t="n">
-        <v>57.75</v>
+        <v>0.2264705882352941</v>
       </c>
       <c r="I18" t="n">
-        <v>789.2648763999999</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J18" t="n">
-        <v>113.3695053658002</v>
+        <v>119.977027209945</v>
       </c>
     </row>
     <row r="19">
@@ -980,13 +980,13 @@
         <v>0.003589781415663758</v>
       </c>
       <c r="H19" t="n">
-        <v>56.25</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="I19" t="n">
-        <v>766.2210872000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J19" t="n">
-        <v>115.4655057153114</v>
+        <v>120.6560218396796</v>
       </c>
     </row>
     <row r="20">
@@ -1012,13 +1012,13 @@
         <v>0.003758636313714791</v>
       </c>
       <c r="H20" t="n">
-        <v>51.5</v>
+        <v>0.2019607843137255</v>
       </c>
       <c r="I20" t="n">
-        <v>635.3848066</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J20" t="n">
-        <v>98.86737490282957</v>
+        <v>118.6003712984035</v>
       </c>
     </row>
     <row r="21">
@@ -1044,13 +1044,13 @@
         <v>0.003533281991669085</v>
       </c>
       <c r="H21" t="n">
-        <v>52</v>
+        <v>0.203921568627451</v>
       </c>
       <c r="I21" t="n">
-        <v>665.1190032000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3511678041638</v>
+        <v>111.7655915074214</v>
       </c>
     </row>
     <row r="22">
@@ -1076,13 +1076,13 @@
         <v>0.003214507928826711</v>
       </c>
       <c r="H22" t="n">
-        <v>58.75</v>
+        <v>0.2303921568627451</v>
       </c>
       <c r="I22" t="n">
-        <v>804.1586446</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J22" t="n">
-        <v>118.0329554254439</v>
+        <v>106.6046679132035</v>
       </c>
     </row>
     <row r="23">
@@ -1108,13 +1108,13 @@
         <v>0.003879827473546961</v>
       </c>
       <c r="H23" t="n">
-        <v>57.25</v>
+        <v>0.2245098039215686</v>
       </c>
       <c r="I23" t="n">
-        <v>781.2819597</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J23" t="n">
-        <v>123.5136704909714</v>
+        <v>120.4972409782638</v>
       </c>
     </row>
     <row r="24">
@@ -1140,13 +1140,13 @@
         <v>0.004287047411704713</v>
       </c>
       <c r="H24" t="n">
-        <v>56.75</v>
+        <v>0.2225490196078431</v>
       </c>
       <c r="I24" t="n">
-        <v>774.3866719</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J24" t="n">
-        <v>127.5267149232573</v>
+        <v>131.8542530657571</v>
       </c>
     </row>
     <row r="25">
@@ -1172,13 +1172,13 @@
         <v>0.004283999657005646</v>
       </c>
       <c r="H25" t="n">
-        <v>57.25</v>
+        <v>0.2245098039215686</v>
       </c>
       <c r="I25" t="n">
-        <v>781.2819597</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J25" t="n">
-        <v>128.2389560804255</v>
+        <v>137.0997930173086</v>
       </c>
     </row>
     <row r="26">
@@ -1204,13 +1204,13 @@
         <v>0.004029381884029726</v>
       </c>
       <c r="H26" t="n">
-        <v>55</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I26" t="n">
-        <v>745.8620171</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J26" t="n">
-        <v>118.6779736148626</v>
+        <v>136.2799318035161</v>
       </c>
     </row>
     <row r="27">
@@ -1236,13 +1236,13 @@
         <v>0.003653793108761449</v>
       </c>
       <c r="H27" t="n">
-        <v>58.75</v>
+        <v>0.2303921568627451</v>
       </c>
       <c r="I27" t="n">
-        <v>804.1586446</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J27" t="n">
-        <v>121.8445553098283</v>
+        <v>129.7730969712327</v>
       </c>
     </row>
     <row r="28">
@@ -1268,13 +1268,13 @@
         <v>0.003615160820088374</v>
       </c>
       <c r="H28" t="n">
-        <v>55.75</v>
+        <v>0.2186274509803922</v>
       </c>
       <c r="I28" t="n">
-        <v>757.9632457</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2876812859276</v>
+        <v>125.943540006309</v>
       </c>
     </row>
     <row r="29">
@@ -1300,13 +1300,13 @@
         <v>0.004041418219448439</v>
       </c>
       <c r="H29" t="n">
-        <v>55</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I29" t="n">
-        <v>745.8620171</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J29" t="n">
-        <v>119.2585565044898</v>
+        <v>128.021201003054</v>
       </c>
     </row>
     <row r="30">
@@ -1332,13 +1332,13 @@
         <v>0.004163593424444998</v>
       </c>
       <c r="H30" t="n">
-        <v>57.5</v>
+        <v>0.2254901960784314</v>
       </c>
       <c r="I30" t="n">
-        <v>784.2930167000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J30" t="n">
-        <v>128.4439135993728</v>
+        <v>124.8259997254573</v>
       </c>
     </row>
     <row r="31">
@@ -1364,13 +1364,13 @@
         <v>0.003891172636853307</v>
       </c>
       <c r="H31" t="n">
-        <v>56.5</v>
+        <v>0.2215686274509804</v>
       </c>
       <c r="I31" t="n">
-        <v>770.0382852000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J31" t="n">
-        <v>124.3531708804651</v>
+        <v>117.2895231394833</v>
       </c>
     </row>
     <row r="32">
@@ -1396,13 +1396,13 @@
         <v>0.003572342740144235</v>
       </c>
       <c r="H32" t="n">
-        <v>56.75</v>
+        <v>0.2225490196078431</v>
       </c>
       <c r="I32" t="n">
-        <v>774.3866719</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J32" t="n">
-        <v>119.8225962540453</v>
+        <v>112.3816827574472</v>
       </c>
     </row>
     <row r="33">
@@ -1428,13 +1428,13 @@
         <v>0.004244372023933696</v>
       </c>
       <c r="H33" t="n">
-        <v>55.5</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="I33" t="n">
-        <v>755.0970919</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J33" t="n">
-        <v>124.8563238957334</v>
+        <v>126.0310683222314</v>
       </c>
     </row>
     <row r="34">
@@ -1460,13 +1460,13 @@
         <v>0.004596094171430027</v>
       </c>
       <c r="H34" t="n">
-        <v>56.5</v>
+        <v>0.2215686274509804</v>
       </c>
       <c r="I34" t="n">
-        <v>770.0382852000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J34" t="n">
-        <v>131.3018777608256</v>
+        <v>136.5241429573689</v>
       </c>
     </row>
     <row r="35">
@@ -1492,13 +1492,13 @@
         <v>0.004581863091336874</v>
       </c>
       <c r="H35" t="n">
-        <v>55.75</v>
+        <v>0.2186274509803922</v>
       </c>
       <c r="I35" t="n">
-        <v>757.9632457</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J35" t="n">
-        <v>128.6638862257986</v>
+        <v>141.785931081282</v>
       </c>
     </row>
     <row r="36">
@@ -1524,13 +1524,13 @@
         <v>0.004341541153995518</v>
       </c>
       <c r="H36" t="n">
-        <v>55.5</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="I36" t="n">
-        <v>755.0970919</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J36" t="n">
-        <v>124.7145646136717</v>
+        <v>141.460325760355</v>
       </c>
     </row>
     <row r="37">
@@ -1556,13 +1556,13 @@
         <v>0.003912512632828272</v>
       </c>
       <c r="H37" t="n">
-        <v>56.5</v>
+        <v>0.2215686274509804</v>
       </c>
       <c r="I37" t="n">
-        <v>770.0382852000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J37" t="n">
-        <v>120.7348399668694</v>
+        <v>134.2890400130304</v>
       </c>
     </row>
     <row r="38">
@@ -1588,13 +1588,13 @@
         <v>0.003895890037420649</v>
       </c>
       <c r="H38" t="n">
-        <v>56</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="I38" t="n">
-        <v>762.6286338</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J38" t="n">
-        <v>119.3723975324829</v>
+        <v>130.742092229552</v>
       </c>
     </row>
     <row r="39">
@@ -1620,13 +1620,13 @@
         <v>0.004374322104915346</v>
       </c>
       <c r="H39" t="n">
-        <v>55</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I39" t="n">
-        <v>745.8620171</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J39" t="n">
-        <v>124.0732134770887</v>
+        <v>133.1896198244459</v>
       </c>
     </row>
     <row r="40">
@@ -1652,13 +1652,13 @@
         <v>0.004466016807228672</v>
       </c>
       <c r="H40" t="n">
-        <v>52.5</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="I40" t="n">
-        <v>690.3665937999999</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J40" t="n">
-        <v>117.0957059829587</v>
+        <v>129.2799193693043</v>
       </c>
     </row>
     <row r="41">
@@ -1684,13 +1684,13 @@
         <v>0.004160553338395346</v>
       </c>
       <c r="H41" t="n">
-        <v>55.5</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="I41" t="n">
-        <v>755.0970919</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J41" t="n">
-        <v>126.0905794925257</v>
+        <v>121.2814883666036</v>
       </c>
     </row>
     <row r="42">
@@ -1716,13 +1716,13 @@
         <v>0.003983742471801189</v>
       </c>
       <c r="H42" t="n">
-        <v>56.25</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="I42" t="n">
-        <v>766.2210872000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J42" t="n">
-        <v>125.1999120859119</v>
+        <v>118.6764642581432</v>
       </c>
     </row>
     <row r="43">
@@ -1748,13 +1748,13 @@
         <v>0.004567498310489729</v>
       </c>
       <c r="H43" t="n">
-        <v>57</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="I43" t="n">
-        <v>777.9026024</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J43" t="n">
-        <v>133.4336747888129</v>
+        <v>130.7404855942288</v>
       </c>
     </row>
     <row r="44">
@@ -1780,13 +1780,13 @@
         <v>0.004928964787615247</v>
       </c>
       <c r="H44" t="n">
-        <v>56</v>
+        <v>0.2196078431372549</v>
       </c>
       <c r="I44" t="n">
-        <v>762.6286338</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J44" t="n">
-        <v>134.6651206953844</v>
+        <v>141.381588666502</v>
       </c>
     </row>
     <row r="45">
@@ -1812,13 +1812,13 @@
         <v>0.004889388760262329</v>
       </c>
       <c r="H45" t="n">
-        <v>57.25</v>
+        <v>0.2245098039215686</v>
       </c>
       <c r="I45" t="n">
-        <v>781.2819597</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J45" t="n">
-        <v>137.0006239962898</v>
+        <v>146.4668597376431</v>
       </c>
     </row>
     <row r="46">
@@ -1844,13 +1844,13 @@
         <v>0.004717055463411254</v>
       </c>
       <c r="H46" t="n">
-        <v>55.75</v>
+        <v>0.2186274509803922</v>
       </c>
       <c r="I46" t="n">
-        <v>757.9632457</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J46" t="n">
-        <v>130.4896464256593</v>
+        <v>147.4511568324125</v>
       </c>
     </row>
     <row r="47">
@@ -1876,13 +1876,13 @@
         <v>0.004142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>58.5</v>
+        <v>0.2294117647058823</v>
       </c>
       <c r="I47" t="n">
-        <v>800.4263609</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J47" t="n">
-        <v>129.1408909159381</v>
+        <v>138.1855628258885</v>
       </c>
     </row>
     <row r="48">
@@ -1908,13 +1908,13 @@
         <v>0.0042743659274368</v>
       </c>
       <c r="H48" t="n">
-        <v>56.5</v>
+        <v>0.2215686274509804</v>
       </c>
       <c r="I48" t="n">
-        <v>770.0382852000001</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J48" t="n">
-        <v>126.2512340586925</v>
+        <v>136.9455533107677</v>
       </c>
     </row>
     <row r="49">
@@ -1940,13 +1940,13 @@
         <v>0.004738724533466957</v>
       </c>
       <c r="H49" t="n">
-        <v>53.25</v>
+        <v>0.2088235294117647</v>
       </c>
       <c r="I49" t="n">
-        <v>710.2284364</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J49" t="n">
-        <v>122.9682374113102</v>
+        <v>138.6263317546487</v>
       </c>
     </row>
     <row r="50">
@@ -1972,13 +1972,13 @@
         <v>0.004809853831204335</v>
       </c>
       <c r="H50" t="n">
-        <v>53</v>
+        <v>0.207843137254902</v>
       </c>
       <c r="I50" t="n">
-        <v>705.5667622999999</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J50" t="n">
-        <v>124.1952762769825</v>
+        <v>134.1642586737509</v>
       </c>
     </row>
     <row r="51">
@@ -2004,13 +2004,13 @@
         <v>0.004444395691342581</v>
       </c>
       <c r="H51" t="n">
-        <v>55</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="I51" t="n">
-        <v>745.8620171</v>
+        <v>859.3670400000001</v>
       </c>
       <c r="J51" t="n">
-        <v>128.7268512600502</v>
+        <v>125.350286208081</v>
       </c>
     </row>
   </sheetData>
